--- a/Excel/xqf131/xqf131CooperativeAntColony2exp2.xlsx
+++ b/Excel/xqf131/xqf131CooperativeAntColony2exp2.xlsx
@@ -458,10 +458,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.350485442000263</v>
+        <v>0.203707337999731</v>
       </c>
       <c r="D2" t="n">
-        <v>1514</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>4.329442828000083</v>
+        <v>0.4070098059992233</v>
       </c>
       <c r="D3" t="n">
-        <v>1514</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4">
@@ -486,10 +486,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.531181479000224</v>
+        <v>0.5935829229993033</v>
       </c>
       <c r="D4" t="n">
-        <v>1514</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9.710174989000279</v>
+        <v>0.8684409129991764</v>
       </c>
       <c r="D5" t="n">
-        <v>1493</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6">
@@ -514,10 +514,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>12.94271753500016</v>
+        <v>1.122052713999437</v>
       </c>
       <c r="D6" t="n">
-        <v>1493</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7">
@@ -528,10 +528,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>15.88571036500025</v>
+        <v>1.423269142999743</v>
       </c>
       <c r="D7" t="n">
-        <v>1493</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8">
@@ -542,10 +542,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>17.91526175800027</v>
+        <v>1.698385998000049</v>
       </c>
       <c r="D8" t="n">
-        <v>1493</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9">
@@ -556,10 +556,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>21.4965066650002</v>
+        <v>1.95605714300018</v>
       </c>
       <c r="D9" t="n">
-        <v>1493</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>24.24118923100059</v>
+        <v>2.346601604999705</v>
       </c>
       <c r="D10" t="n">
-        <v>1493</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11">
@@ -584,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>27.09330527400061</v>
+        <v>2.684524410999074</v>
       </c>
       <c r="D11" t="n">
-        <v>1493</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12">
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>29.95198708100042</v>
+        <v>2.996614920999491</v>
       </c>
       <c r="D12" t="n">
-        <v>1493</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>33.20806510900047</v>
+        <v>3.360623471999133</v>
       </c>
       <c r="D13" t="n">
-        <v>1493</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14">
@@ -626,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>35.30782218700051</v>
+        <v>3.656089196999346</v>
       </c>
       <c r="D14" t="n">
-        <v>1493</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15">
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>38.15823307500068</v>
+        <v>3.861707150999791</v>
       </c>
       <c r="D15" t="n">
-        <v>1493</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>41.34502198900054</v>
+        <v>4.085753428999851</v>
       </c>
       <c r="D16" t="n">
-        <v>1493</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17">
@@ -668,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>44.48791129300025</v>
+        <v>4.293003165999835</v>
       </c>
       <c r="D17" t="n">
-        <v>1493</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18">
@@ -682,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>48.67470004900042</v>
+        <v>4.516540997999073</v>
       </c>
       <c r="D18" t="n">
-        <v>1493</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19">
@@ -696,10 +696,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>53.63330567100047</v>
+        <v>4.802144726998449</v>
       </c>
       <c r="D19" t="n">
-        <v>1493</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20">
@@ -710,10 +710,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>57.28113277900047</v>
+        <v>5.104648785998506</v>
       </c>
       <c r="D20" t="n">
-        <v>1493</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21">
@@ -724,10 +724,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>61.45487430600042</v>
+        <v>5.293649987998833</v>
       </c>
       <c r="D21" t="n">
-        <v>1493</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22">
@@ -738,10 +738,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>65.45988766400069</v>
+        <v>5.477211956998872</v>
       </c>
       <c r="D22" t="n">
-        <v>1493</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23">
@@ -752,10 +752,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>68.90961629800086</v>
+        <v>5.742447308998635</v>
       </c>
       <c r="D23" t="n">
-        <v>1493</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24">
@@ -766,10 +766,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>72.33084906800059</v>
+        <v>5.929767474998698</v>
       </c>
       <c r="D24" t="n">
-        <v>1493</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25">
@@ -780,10 +780,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>75.11086989700061</v>
+        <v>6.134202989998812</v>
       </c>
       <c r="D25" t="n">
-        <v>1493</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26">
@@ -794,10 +794,10 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>77.1344519510003</v>
+        <v>6.363691673998801</v>
       </c>
       <c r="D26" t="n">
-        <v>1493</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27">
@@ -808,10 +808,10 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>79.38094758500029</v>
+        <v>6.590758354998798</v>
       </c>
       <c r="D27" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28">
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>81.96852322699988</v>
+        <v>6.865366657998493</v>
       </c>
       <c r="D28" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29">
@@ -836,10 +836,10 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>85.09403249499974</v>
+        <v>7.247180175998437</v>
       </c>
       <c r="D29" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="30">
@@ -850,10 +850,10 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>88.45793058699974</v>
+        <v>7.557441996998023</v>
       </c>
       <c r="D30" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="31">
@@ -864,10 +864,10 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>92.07971215999987</v>
+        <v>7.854387308997502</v>
       </c>
       <c r="D31" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="32">
@@ -878,10 +878,10 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>95.5267557369998</v>
+        <v>8.038050440996813</v>
       </c>
       <c r="D32" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33">
@@ -892,10 +892,10 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>99.88382117799983</v>
+        <v>8.239592001996243</v>
       </c>
       <c r="D33" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34">
@@ -906,10 +906,10 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>102.4244224619997</v>
+        <v>8.439773508996041</v>
       </c>
       <c r="D34" t="n">
-        <v>1493</v>
+        <v>575</v>
       </c>
     </row>
     <row r="35">
@@ -920,10 +920,10 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>104.8809713929995</v>
+        <v>8.690958079996562</v>
       </c>
       <c r="D35" t="n">
-        <v>1493</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36">
@@ -934,10 +934,10 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>108.0902278689996</v>
+        <v>8.999533438996878</v>
       </c>
       <c r="D36" t="n">
-        <v>1493</v>
+        <v>575</v>
       </c>
     </row>
     <row r="37">
@@ -948,10 +948,10 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>111.5653721939993</v>
+        <v>9.301734932996624</v>
       </c>
       <c r="D37" t="n">
-        <v>1493</v>
+        <v>575</v>
       </c>
     </row>
     <row r="38">
@@ -962,10 +962,10 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>114.995737283999</v>
+        <v>9.622828382996886</v>
       </c>
       <c r="D38" t="n">
-        <v>1493</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39">
@@ -976,10 +976,10 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>118.156343015999</v>
+        <v>9.958792690996233</v>
       </c>
       <c r="D39" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40">
@@ -990,10 +990,10 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>121.5090447949992</v>
+        <v>10.23404978399594</v>
       </c>
       <c r="D40" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41">
@@ -1004,10 +1004,10 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>125.5168433729996</v>
+        <v>10.47876712899597</v>
       </c>
       <c r="D41" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="42">
@@ -1018,10 +1018,10 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>128.7403044239995</v>
+        <v>10.74500042699583</v>
       </c>
       <c r="D42" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43">
@@ -1032,10 +1032,10 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>132.7807777729995</v>
+        <v>10.90815635899617</v>
       </c>
       <c r="D43" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="44">
@@ -1046,10 +1046,10 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>136.6723599439993</v>
+        <v>11.17602417099533</v>
       </c>
       <c r="D44" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45">
@@ -1060,10 +1060,10 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>140.7070615119992</v>
+        <v>11.39579543499531</v>
       </c>
       <c r="D45" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="46">
@@ -1074,10 +1074,10 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>145.0125036469994</v>
+        <v>11.632774521996</v>
       </c>
       <c r="D46" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="47">
@@ -1088,10 +1088,10 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>148.7814498989997</v>
+        <v>12.02652587299599</v>
       </c>
       <c r="D47" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="48">
@@ -1102,10 +1102,10 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>153.3871954229994</v>
+        <v>12.28232934399603</v>
       </c>
       <c r="D48" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="49">
@@ -1116,10 +1116,10 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>157.6637325989996</v>
+        <v>12.57524506899517</v>
       </c>
       <c r="D49" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="50">
@@ -1130,10 +1130,10 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>161.5402234829994</v>
+        <v>12.83985215699522</v>
       </c>
       <c r="D50" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="51">
@@ -1144,10 +1144,10 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>163.3573403619994</v>
+        <v>13.06276315199557</v>
       </c>
       <c r="D51" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="52">
@@ -1158,10 +1158,10 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>166.6566443939992</v>
+        <v>13.28964849799468</v>
       </c>
       <c r="D52" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="53">
@@ -1172,10 +1172,10 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>170.2892424739994</v>
+        <v>13.4980356559945</v>
       </c>
       <c r="D53" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="54">
@@ -1186,10 +1186,10 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>173.4386301819995</v>
+        <v>13.73994579999453</v>
       </c>
       <c r="D54" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="55">
@@ -1200,10 +1200,10 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>176.8878210959997</v>
+        <v>14.00301778599442</v>
       </c>
       <c r="D55" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="56">
@@ -1214,10 +1214,10 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>180.2907581509999</v>
+        <v>14.32277311299367</v>
       </c>
       <c r="D56" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="57">
@@ -1228,10 +1228,10 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>183.1689873939999</v>
+        <v>14.57045012799426</v>
       </c>
       <c r="D57" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="58">
@@ -1242,10 +1242,10 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>184.958905856</v>
+        <v>14.86249871099426</v>
       </c>
       <c r="D58" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="59">
@@ -1256,10 +1256,10 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>187.1265547479998</v>
+        <v>15.17729999099447</v>
       </c>
       <c r="D59" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60">
@@ -1270,10 +1270,10 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>190.6096223049999</v>
+        <v>15.4519017639941</v>
       </c>
       <c r="D60" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="61">
@@ -1284,10 +1284,10 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>193.6512957149998</v>
+        <v>15.76070901499406</v>
       </c>
       <c r="D61" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="62">
@@ -1298,10 +1298,10 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>196.5307156190001</v>
+        <v>16.07342931499352</v>
       </c>
       <c r="D62" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="63">
@@ -1312,10 +1312,10 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>199.8796712530002</v>
+        <v>16.41487030399367</v>
       </c>
       <c r="D63" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="64">
@@ -1326,10 +1326,10 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>202.80461053</v>
+        <v>16.81701743599388</v>
       </c>
       <c r="D64" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="65">
@@ -1340,10 +1340,10 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>205.2685363849996</v>
+        <v>17.12964484099393</v>
       </c>
       <c r="D65" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="66">
@@ -1354,10 +1354,10 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>208.5255219499995</v>
+        <v>17.46771386599357</v>
       </c>
       <c r="D66" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="67">
@@ -1368,10 +1368,10 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>211.2468276729996</v>
+        <v>17.79411817699292</v>
       </c>
       <c r="D67" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="68">
@@ -1382,10 +1382,10 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>214.4066862699997</v>
+        <v>18.1105270819935</v>
       </c>
       <c r="D68" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="69">
@@ -1396,10 +1396,10 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>217.3444276370001</v>
+        <v>18.34840129399345</v>
       </c>
       <c r="D69" t="n">
-        <v>1490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="70">
@@ -1410,10 +1410,10 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>221.7716454770002</v>
+        <v>18.55691052799375</v>
       </c>
       <c r="D70" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="71">
@@ -1424,10 +1424,10 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>225.661812714</v>
+        <v>18.80581968599381</v>
       </c>
       <c r="D71" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="72">
@@ -1438,10 +1438,10 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>229.450810798</v>
+        <v>19.03031375399405</v>
       </c>
       <c r="D72" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="73">
@@ -1452,10 +1452,10 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>233.3949556940001</v>
+        <v>19.24765266499435</v>
       </c>
       <c r="D73" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="74">
@@ -1466,10 +1466,10 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>237.3707395400002</v>
+        <v>19.51743230999455</v>
       </c>
       <c r="D74" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="75">
@@ -1480,10 +1480,10 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>242.0306885530003</v>
+        <v>19.79725849799433</v>
       </c>
       <c r="D75" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="76">
@@ -1494,10 +1494,10 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>246.6966966560003</v>
+        <v>20.04457644199465</v>
       </c>
       <c r="D76" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="77">
@@ -1508,10 +1508,10 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>250.5792786300003</v>
+        <v>20.34924736899484</v>
       </c>
       <c r="D77" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="78">
@@ -1522,10 +1522,10 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>253.3424630110003</v>
+        <v>20.63247463199423</v>
       </c>
       <c r="D78" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="79">
@@ -1536,10 +1536,10 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>257.0237890310004</v>
+        <v>20.96877307799423</v>
       </c>
       <c r="D79" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="80">
@@ -1550,10 +1550,10 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>259.7556052330006</v>
+        <v>21.23993368699394</v>
       </c>
       <c r="D80" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="81">
@@ -1564,10 +1564,10 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>263.1432443790004</v>
+        <v>21.53065493799386</v>
       </c>
       <c r="D81" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="82">
@@ -1578,10 +1578,10 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>265.2757424220008</v>
+        <v>21.81056303099376</v>
       </c>
       <c r="D82" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="83">
@@ -1592,10 +1592,10 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>267.9579911350011</v>
+        <v>22.13804447199345</v>
       </c>
       <c r="D83" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="84">
@@ -1606,10 +1606,10 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>271.390472428001</v>
+        <v>22.31584925999323</v>
       </c>
       <c r="D84" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="85">
@@ -1620,10 +1620,10 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>274.5208050150009</v>
+        <v>22.5807409189938</v>
       </c>
       <c r="D85" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="86">
@@ -1634,10 +1634,10 @@
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>278.1861497450009</v>
+        <v>22.86064366199389</v>
       </c>
       <c r="D86" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="87">
@@ -1648,10 +1648,10 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>282.525341037001</v>
+        <v>23.19308045499383</v>
       </c>
       <c r="D87" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="88">
@@ -1662,10 +1662,10 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>285.7907666960014</v>
+        <v>23.49279318899335</v>
       </c>
       <c r="D88" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="89">
@@ -1676,10 +1676,10 @@
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>290.0260371110012</v>
+        <v>23.72373010999308</v>
       </c>
       <c r="D89" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="90">
@@ -1690,10 +1690,10 @@
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>293.4789186740013</v>
+        <v>23.92433527699359</v>
       </c>
       <c r="D90" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="91">
@@ -1704,10 +1704,10 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>295.5451474070014</v>
+        <v>24.19876389799356</v>
       </c>
       <c r="D91" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="92">
@@ -1718,10 +1718,10 @@
         <v>91</v>
       </c>
       <c r="C92" t="n">
-        <v>299.4072932940016</v>
+        <v>24.48477668799296</v>
       </c>
       <c r="D92" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="93">
@@ -1732,10 +1732,10 @@
         <v>92</v>
       </c>
       <c r="C93" t="n">
-        <v>302.7234817740018</v>
+        <v>24.77998329699221</v>
       </c>
       <c r="D93" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="94">
@@ -1746,10 +1746,10 @@
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>306.2760862090017</v>
+        <v>25.09410688999196</v>
       </c>
       <c r="D94" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="95">
@@ -1760,10 +1760,10 @@
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>309.4257464790016</v>
+        <v>25.43867813399174</v>
       </c>
       <c r="D95" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="96">
@@ -1774,10 +1774,10 @@
         <v>95</v>
       </c>
       <c r="C96" t="n">
-        <v>313.5480345000014</v>
+        <v>25.67646036399128</v>
       </c>
       <c r="D96" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="97">
@@ -1788,10 +1788,10 @@
         <v>96</v>
       </c>
       <c r="C97" t="n">
-        <v>315.8657027820013</v>
+        <v>25.88450948799164</v>
       </c>
       <c r="D97" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="98">
@@ -1802,10 +1802,10 @@
         <v>97</v>
       </c>
       <c r="C98" t="n">
-        <v>318.5010010840015</v>
+        <v>26.13180821699189</v>
       </c>
       <c r="D98" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="99">
@@ -1816,10 +1816,10 @@
         <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>322.2040673840015</v>
+        <v>26.41724364299171</v>
       </c>
       <c r="D99" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="100">
@@ -1830,10 +1830,10 @@
         <v>99</v>
       </c>
       <c r="C100" t="n">
-        <v>325.3327057330016</v>
+        <v>26.71333694799159</v>
       </c>
       <c r="D100" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="101">
@@ -1844,10 +1844,10 @@
         <v>100</v>
       </c>
       <c r="C101" t="n">
-        <v>328.9167059470014</v>
+        <v>27.03295692899246</v>
       </c>
       <c r="D101" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
